--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.563600000000001</v>
+        <v>8.450800000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.0093</v>
+        <v>-22.35589999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4.536200000000007</v>
+        <v>4.501400000000005</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.668599999999996</v>
+        <v>-7.986099999999998</v>
       </c>
     </row>
     <row r="10">
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5482</v>
+        <v>5.151300000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.2801</v>
+        <v>-22.32200000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.6694</v>
+        <v>-21.55629999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>4.395399999999999</v>
+        <v>4.886299999999998</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.14240000000001</v>
+        <v>-22.1112</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.87769999999998</v>
+        <v>-21.65009999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.997900000000005</v>
+        <v>-7.945999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.211300000000005</v>
+        <v>7.992300000000008</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>4.888500000000003</v>
+        <v>4.479900000000003</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.15409999999997</v>
+        <v>-21.06089999999997</v>
       </c>
       <c r="B26" t="n">
-        <v>5.562999999999999</v>
+        <v>5.976700000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.01239999999999</v>
+        <v>-22.00099999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.359600000000004</v>
+        <v>-8.280500000000004</v>
       </c>
     </row>
     <row r="28">
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.15579999999998</v>
+        <v>-21.04599999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-8.095800000000002</v>
+        <v>-7.886899999999996</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.665599999999992</v>
+        <v>-7.199099999999991</v>
       </c>
     </row>
     <row r="33">
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.356899999999998</v>
+        <v>9.4793</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-22.0185</v>
+        <v>-21.8039</v>
       </c>
       <c r="B35" t="n">
-        <v>5.214200000000002</v>
+        <v>4.7526</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.83759999999999</v>
+        <v>-21.6267</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.0322</v>
+        <v>-7.117900000000001</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.090599999999998</v>
+        <v>-7.412299999999997</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.449599999999997</v>
+        <v>-7.669399999999996</v>
       </c>
     </row>
     <row r="40">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.7861</v>
+        <v>-7.855100000000004</v>
       </c>
     </row>
     <row r="42">
@@ -1048,7 +1048,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.178100000000004</v>
+        <v>4.609100000000005</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.52509999999998</v>
+        <v>-21.60059999999998</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.434599999999996</v>
+        <v>-7.255499999999997</v>
       </c>
     </row>
     <row r="46">
@@ -1104,13 +1104,13 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.898900000000002</v>
+        <v>4.909400000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.3896</v>
+        <v>-8.205100000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.790000000000004</v>
+        <v>5.6339</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.228799999999994</v>
+        <v>-8.675499999999996</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4839</v>
+        <v>5.384499999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2404</v>
+        <v>-22.19700000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1222,12 +1222,12 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-9.149700000000001</v>
+        <v>-8.881500000000003</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.14720000000001</v>
+        <v>-21.96760000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.839099999999998</v>
+        <v>-8.471799999999996</v>
       </c>
     </row>
     <row r="58">
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.279800000000002</v>
+        <v>-8.091800000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.928299999999994</v>
+        <v>-7.18589999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.102799999999996</v>
+        <v>4.860299999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.181800000000003</v>
+        <v>5.502800000000002</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58569999999999</v>
+        <v>-21.5597</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.225699999999994</v>
+        <v>9.292899999999996</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1488,12 +1488,12 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-9.160699999999999</v>
+        <v>-8.225499999999998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.68849999999998</v>
+        <v>-19.52459999999997</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.6048</v>
+        <v>-21.72960000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>5.444900000000002</v>
+        <v>5.557500000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.471199999999993</v>
+        <v>9.523899999999994</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.95790000000002</v>
+        <v>-22.06140000000002</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1586,12 +1586,12 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-9.203500000000002</v>
+        <v>-8.789099999999996</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.46349999999998</v>
+        <v>-21.5448</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1698,7 +1698,7 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.214099999999995</v>
+        <v>-7.432299999999993</v>
       </c>
     </row>
     <row r="91">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.262799999999996</v>
+        <v>4.9665</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.25479999999999</v>
+        <v>-21.41030000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.752199999999993</v>
+        <v>-6.91249999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1787,10 +1787,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.56249999999999</v>
+        <v>-21.5735</v>
       </c>
       <c r="B97" t="n">
-        <v>5.000100000000001</v>
+        <v>5.0064</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.603899999999999</v>
+        <v>5.6863</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.522199999999993</v>
+        <v>-7.512800000000002</v>
       </c>
     </row>
     <row r="103">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>10.01910000000001</v>
+        <v>9.975200000000003</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.576799999999997</v>
+        <v>-7.752500000000002</v>
       </c>
     </row>
   </sheetData>
